--- a/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/品控.xlsx
+++ b/erui-parent/erui-boss-web/src/main/webapp/WEB-INF/template/excel/品控.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8F41F4-0D95-4E50-8D75-A95E5FA41DF7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="21840" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,11 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>报检总数（件）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>产品入厂首检合格数（件）</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -32,31 +29,23 @@
     <t>产品入厂首检合格率</t>
   </si>
   <si>
-    <t>产品出厂总数（件）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>出厂检验合格数（件）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品出厂检验合格率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>外派监造总数（件）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>监造产品出厂合格数（件）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>产品外派监造合格率</t>
+    <t>外派检验总数（件）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>外派检验合格数（件）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>外派检验合格率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品入厂报检总数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -64,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,13 +90,33 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -137,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -148,14 +157,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -220,7 +247,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -255,7 +282,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -440,244 +467,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="20.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.75" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="2" max="2" width="20.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.75" style="10" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>43121</v>
-      </c>
-      <c r="B2" s="4">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>43074</v>
+      </c>
+      <c r="B2" s="5">
         <v>62</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>60</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>0.96799999999999997</v>
       </c>
-      <c r="E2" s="4">
-        <v>78</v>
-      </c>
-      <c r="F2" s="4">
-        <v>78</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="E2" s="8">
+        <v>512</v>
+      </c>
+      <c r="F2" s="8">
+        <v>512</v>
+      </c>
+      <c r="G2" s="9">
         <v>1</v>
       </c>
-      <c r="H2" s="4">
-        <v>512</v>
-      </c>
-      <c r="I2" s="4">
-        <v>512</v>
-      </c>
-      <c r="J2" s="6">
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>43092</v>
+      </c>
+      <c r="B3" s="5">
+        <v>158</v>
+      </c>
+      <c r="C3" s="5">
+        <v>152</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="E3" s="8">
+        <v>18713</v>
+      </c>
+      <c r="F3" s="8">
+        <v>18713</v>
+      </c>
+      <c r="G3" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>43128</v>
-      </c>
-      <c r="B3" s="4">
-        <v>158</v>
-      </c>
-      <c r="C3" s="4">
-        <v>152</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="E3" s="4">
-        <v>150</v>
-      </c>
-      <c r="F3" s="4">
-        <v>150</v>
-      </c>
-      <c r="G3" s="6">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>43105</v>
+      </c>
+      <c r="B4" s="5">
+        <v>713</v>
+      </c>
+      <c r="C4" s="5">
+        <v>127</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="E4" s="8">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9">
         <v>1</v>
       </c>
-      <c r="H3" s="4">
-        <v>18713</v>
-      </c>
-      <c r="I3" s="4">
-        <v>18713</v>
-      </c>
-      <c r="J3" s="6">
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>43156</v>
+      </c>
+      <c r="B5" s="5">
+        <v>396</v>
+      </c>
+      <c r="C5" s="5">
+        <v>388</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.9798</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1016</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1016</v>
+      </c>
+      <c r="G5" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>43143</v>
-      </c>
-      <c r="B4" s="4">
-        <v>713</v>
-      </c>
-      <c r="C4" s="4">
-        <v>127</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="E4" s="4">
-        <v>145</v>
-      </c>
-      <c r="F4" s="4">
-        <v>145</v>
-      </c>
-      <c r="G4" s="6">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>43182</v>
+      </c>
+      <c r="B6" s="5">
+        <v>142</v>
+      </c>
+      <c r="C6" s="5">
+        <v>114</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.80279999999999996</v>
+      </c>
+      <c r="E6" s="8">
+        <v>25</v>
+      </c>
+      <c r="F6" s="8">
+        <v>25</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>43185</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1025</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1025</v>
+      </c>
+      <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="H4" s="4">
-        <v>10</v>
-      </c>
-      <c r="I4" s="4">
-        <v>10</v>
-      </c>
-      <c r="J4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>43147</v>
-      </c>
-      <c r="B5" s="4">
-        <v>396</v>
-      </c>
-      <c r="C5" s="4">
-        <v>388</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.9798</v>
-      </c>
-      <c r="E5" s="4">
-        <v>381</v>
-      </c>
-      <c r="F5" s="4">
-        <v>381</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1016</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1016</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>43152</v>
-      </c>
-      <c r="B6" s="4">
-        <v>142</v>
-      </c>
-      <c r="C6" s="4">
-        <v>114</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.80279999999999996</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1157</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1157</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>25</v>
-      </c>
-      <c r="I6" s="4">
-        <v>25</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>43156</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="E7" s="8">
         <v>1025</v>
       </c>
-      <c r="C7" s="4">
+      <c r="F7" s="8">
         <v>1025</v>
       </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>44</v>
-      </c>
-      <c r="F7" s="4">
-        <v>44</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1025</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1025</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="G7" s="9">
         <v>1</v>
       </c>
     </row>
